--- a/biology/Botanique/Begonia_maculata/Begonia_maculata.xlsx
+++ b/biology/Botanique/Begonia_maculata/Begonia_maculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia maculata est une espèce de plantes de la famille des Begoniaceae. Ce bégonia originaire du Brésil, plus particulièrement de la forêt atlantique, est cultivé et commercialisé sous le nom de bégonia tamaya, tamaya ou bégonia bambou. La plante est vivace jusqu'à 10 °C et peut atteindre 1,50 m. Elle préfère une exposition ombre ou mi-ombre et fleurit de mars à octobre. Sa multiplication se fait principalement par bouturage de tiges avec un nœud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Jeunes feuille
@@ -552,25 +566,97 @@
           <t>Classification et systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette espèce fait partie de la section Gaerdtia ; elle a été décrite en 1820 par le botaniste italien Giuseppe Raddi (1770-1829). L'épithète spécifique, maculata, signifie « tachetée ».
-En classification phylogénétique APG III (2009)[1], elle est classée dans le genre Begonia, famille des Begoniaceae, ordre des Cucurbitales (dans la classification classique de Cronquist (1981)[2] les Begoniaceae faisaient partie de l'ordre des Violales). 
-Liste des synonymes
-Synonymes :
-Begonia aculeata Walp.[3]
-Begonia argyrostigma Fisch. ex Link &amp; Otto[3]
-Begonia corallina Carrière[3]
-Begonia dichroa Sprague[3]
-Begonia maculata f. argentea (Klotzsch) Voss[3]
-Begonia maculata var. argentea (Klotzsch) A.DC.[3]
-Begonia maculata var. elegantissima Fotsch[3]
-Begonia maculata var. wightii Fotsch[3]
-Begonia punctata Steud.[3]
-Gaerdtia argentea Klotzsch[3]
-Gaerdtia maculata (Raddi) Klotzsch[4]
-Liste des variétés
-Selon Tropicos                                           (16 octobre 2016)[5] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce fait partie de la section Gaerdtia ; elle a été décrite en 1820 par le botaniste italien Giuseppe Raddi (1770-1829). L'épithète spécifique, maculata, signifie « tachetée ».
+En classification phylogénétique APG III (2009), elle est classée dans le genre Begonia, famille des Begoniaceae, ordre des Cucurbitales (dans la classification classique de Cronquist (1981) les Begoniaceae faisaient partie de l'ordre des Violales). 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Begonia_maculata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_maculata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification et systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Synonymes :
+Begonia aculeata Walp.
+Begonia argyrostigma Fisch. ex Link &amp; Otto
+Begonia corallina Carrière
+Begonia dichroa Sprague
+Begonia maculata f. argentea (Klotzsch) Voss
+Begonia maculata var. argentea (Klotzsch) A.DC.
+Begonia maculata var. elegantissima Fotsch
+Begonia maculata var. wightii Fotsch
+Begonia punctata Steud.
+Gaerdtia argentea Klotzsch
+Gaerdtia maculata (Raddi) Klotzsch
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Begonia_maculata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Begonia_maculata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification et systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (16 octobre 2016) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia maculata var. albo-picta hort. ex Fotsch
 variété Begonia maculata var. argentea A. DC.
 variété Begonia maculata var. elegantissima hort. ex Fotsch
